--- a/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33647D47-DBA8-114C-8ED0-D527F9B2BCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C637A1D-22A6-AD48-B25E-AF332A57CB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="3400" windowWidth="27160" windowHeight="16440" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="1640" yWindow="1560" windowWidth="27160" windowHeight="16440" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueEntity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>용과</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,22 @@
   </si>
   <si>
     <t>npcName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응 맞아, 아니야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSelect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,18 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -523,8 +541,14 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -537,8 +561,14 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -551,8 +581,14 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -565,8 +601,14 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -579,8 +621,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -593,8 +638,11 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
@@ -606,6 +654,9 @@
       </c>
       <c r="D7" t="s">
         <v>11</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\sieun\Develop\dragon-and-test\Assets\Scripts\System\Interaction\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C637A1D-22A6-AD48-B25E-AF332A57CB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4756FCBE-52FE-496E-91E9-D70BE66F58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1560" windowWidth="27160" windowHeight="16440" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueEntity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>용과</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>응 맞아, 아니야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래, 싫어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,17 +514,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -542,13 +538,13 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -568,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -588,7 +584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -602,13 +598,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -625,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -642,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>

--- a/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\sieun\Develop\dragon-and-test\Assets\Scripts\System\Interaction\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4756FCBE-52FE-496E-91E9-D70BE66F58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B807D-1D60-F347-A13E-D1FFDA54B8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="15520" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueEntity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,59 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>용과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용과는 참 신기한 과일이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험은 언제나 어려워 ㅜㅜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타벅스 용과 리프레셔 먹으러 가장~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 돌이 좋아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 짱구가 좋아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짱구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 이슬이 누나가 좋아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못말려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>eventOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,11 +58,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>응 맞아, 아니야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 집 근처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학장님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 학관에는 어쩐 일이냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 너도 소식을 들은 것이냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어! 왔어??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제 너 우리집에서 놀다가 화투패 놓고 갔어!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 여깄다!! 자 화투패 받아!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 이번 시험에도 도전한다며?? 잘 좀 해봐 벌써 60수잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터 필드 앞 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용과 시험과 화투패를 받지 않으면 다음 스테이지로 넘어갈 수 없습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학관</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그럼에도 너는 시험을 치룰 준비가 되었느냐? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">네) 좋다! 이번이 아마 60번째 시험이지? 이번에는 꼭 시험에 합격해 보거라!! 껄껄껄 </t>
+  </si>
+  <si>
+    <t>친구 집</t>
+  </si>
+  <si>
+    <t>친구</t>
+  </si>
+  <si>
+    <t xml:space="preserve">친구 </t>
+  </si>
+  <si>
+    <t>받는다) 너한테 남은 건 화투패뿐인데, 잘 가지고 다녀 바보야!</t>
+  </si>
+  <si>
+    <t>시험 내용도 이전과는 아주 다르다.
+12월..까지의 화투패를 모두 모으는 것이야. 
+화투패를 모으라니.. 이게 어떤 의미인지 모르겠구나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맞다!! 시험 치루기 전에 연승장에서 몸은 꼭 풀고 가!!!
+저번처럼 동물들한테 된통 당하지 말고! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니요) 그러하냐? 만반의 준비를 해서 찾아올 수 있도록 하여라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">받지 않는다) 엥? 뭐야 화투 그만두었어? 그래! 그럼 내가 가질게~ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용과 시험이 시작됐대!학관에 가봐, 다들 난리났어!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 이번 시험이 전례가 없는 경우인건 알지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월달에 시험이 시작하다니 이런 경우는 처음이다.
+시험의 일정이 바뀌다니 말이야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이미 동네방네 소문이 다 났구나! 
+너같이 게으른 놈도 소식을 들었다니 껄껄.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신님께서 무슨 생각이신지 모르겠지만, 시험은 시작되었다.
+용문서가 내려왔어. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그래도 이번 시험은 화투패 모으는 거더라?!
+너한테 좋은 거 아니야? 너 화투 좋아하잖아!! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 이번 시험에 도전한 사람들 소식이.. 없어…
+다들 바쁜걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 혹시 모르니까 조심해!!
+나도 시험 등록하고 곧 따라갈게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는다,받지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예,아니요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시만 내가 화투패 챙겨놨거든 지금 줄게!! (뒤적뒤적)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,12 +242,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,12 +270,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,144 +617,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="38">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="38">
+      <c r="A22">
         <v>7</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="38">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="b">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\sieun\Develop\dragon-and-test\Assets\Scripts\System\Interaction\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B807D-1D60-F347-A13E-D1FFDA54B8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3FAB10-692B-4ABE-9B91-F20334054635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="15520" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="120" yWindow="1470" windowWidth="27735" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueEntity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>eventOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,31 @@
   </si>
   <si>
     <t>잠시만 내가 화투패 챙겨놨거든 지금 줄게!! (뒤적뒤적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응살래,아니 안살래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 것도 천천히 둘러봐~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응 고마워, 인벤토리에 넣어줄게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격은 dd이야
+구매할거니?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -617,21 +642,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="122.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -668,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -685,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -702,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -719,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38">
+    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -736,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -753,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="38">
+    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -770,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38">
+    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -787,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57">
+    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -804,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -824,7 +849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -841,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -858,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -875,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -892,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -909,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -929,7 +954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -946,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -963,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -980,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="38">
+    <row r="21" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -997,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38">
+    <row r="22" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1014,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="38">
+    <row r="23" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1031,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1045,6 +1070,60 @@
         <v>20</v>
       </c>
       <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\sieun\Develop\dragon-and-test\Assets\Scripts\System\Interaction\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3FAB10-692B-4ABE-9B91-F20334054635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6037CB8-75A3-3345-8128-AD381667B49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1470" windowWidth="27735" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="980" yWindow="1480" windowWidth="27740" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueEntity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>eventOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,10 @@
   <si>
     <t>가격은 dd이야
 구매할거니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 돈이 부족한거 같아…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -642,21 +646,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="122.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -693,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="38">
       <c r="A3">
         <v>2</v>
       </c>
@@ -710,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -727,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -744,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="38">
       <c r="A6">
         <v>3</v>
       </c>
@@ -761,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -778,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="38">
       <c r="A8">
         <v>5</v>
       </c>
@@ -795,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="38">
       <c r="A9">
         <v>6</v>
       </c>
@@ -812,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="57">
       <c r="A10">
         <v>7</v>
       </c>
@@ -829,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
@@ -849,7 +853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
@@ -866,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
@@ -883,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -900,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2</v>
       </c>
@@ -917,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>3</v>
       </c>
@@ -934,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>4</v>
       </c>
@@ -954,7 +958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5</v>
       </c>
@@ -971,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>6</v>
       </c>
@@ -988,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="38">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="38">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="38">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="38">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1093,7 +1097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="19">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="19">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1124,6 +1128,23 @@
         <v>47</v>
       </c>
       <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\sieun\Develop\dragon-and-test\Assets\Scripts\System\Interaction\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6037CB8-75A3-3345-8128-AD381667B49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AF7869-9410-4F0F-A62D-47D35609C104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1480" windowWidth="27740" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="1065" yWindow="780" windowWidth="27735" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueEntity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>eventOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,102 @@
   </si>
   <si>
     <t>응? 돈이 부족한거 같아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허수아비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반가워! 오늘도 연습하러 왔네?
+다시 처음부터 연습해볼까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 움직이는 방법이야.
+WASD 키로 움직일 수 있어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격은 마우스 왼클릭, 구르기는 마우스 우클릭이야.
+나를 한 번 공격해볼래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC나 오브젝트와 상호작용을 하고 싶다면 F키를 눌러봐</t>
+  </si>
+  <si>
+    <t>잘했어!! 기본적인 조작은 모두 마스터했어.
+이제 화투에 대해 알려줄게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화투는 용들이 아주 오래전부터 즐긴 전통놀이이자, 가장 좋아하는 놀이 중 하나야!!</t>
+  </si>
+  <si>
+    <t>용들은 화투 놀이를 즐기기도 했지만,
+마법의 모포를 이용해 화투에 힘을 담아 전투에 사용하기도 했어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 화투 능력에 대해 자세히 알려주도록 할게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 이제는 화투 능력을 쓰는 용들이 거의 없는데…
+너는 아직도 쓰는구나??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화투의 힘을 이용한 능력은 굉장했지..
+동물왕국을 모두 저지했을 정도였으니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뒤적뒤적..) 여기있다!
+이건 바로 화투 놀이중 하나인 섰다 족보책이야!
+이걸 받도록 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섰다 족보책을 한 번 펼쳐볼래??
+K키를 누르면 책을 볼 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>족보는 크게 광땡, 땡, 중간, 끗 순서대로야.
+각 카테고리를 살펴보면 어떤 화투패 조합이 있는지 알 수 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 족보의 순서만 나와있지만 마법의 모포와 상호작용해서
+스킬을 얻으면 스킬 효과와 족보 시너지 효과를 알 수 있어!
+다양한 스킬을 얻고 사 용해보길 추천할께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시로 한 가지 스킬만 알려주도록 할까? 이건 화투패 능력 중 하나야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q키를 누르면 스킬을 사용할 수 있으니 한 번 사용해볼래?</t>
+  </si>
+  <si>
+    <t>잘했어!!
+이제 모든 훈련이 끝났으니 훈련장에서 나가봐도 좋아.
+이번엔 용과 시험에 꼭 통과하길 바라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,21 +742,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="122.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -697,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -714,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -731,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -748,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38">
+    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -765,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -782,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="38">
+    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -799,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38">
+    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -816,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57">
+    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -833,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -853,7 +949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -870,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -887,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -904,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -921,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -938,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -958,7 +1054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -975,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -992,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1009,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="38">
+    <row r="21" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1026,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38">
+    <row r="22" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1043,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="38">
+    <row r="23" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1060,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1077,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="38">
+    <row r="25" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1097,7 +1193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1114,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1131,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1145,6 +1241,295 @@
         <v>49</v>
       </c>
       <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\sieun\Develop\dragon-and-test\Assets\Scripts\System\Interaction\Dialog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AF7869-9410-4F0F-A62D-47D35609C104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDA90A-2C23-2F45-9F2D-9518D5C09D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="780" windowWidth="27735" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="1060" yWindow="780" windowWidth="27740" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueEntity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>eventOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,11 @@
   </si>
   <si>
     <t>튜토리얼3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재장전은 R 키로 할 수 있어!
+재장전을 해보자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -742,21 +747,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -776,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -793,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="38">
       <c r="A3">
         <v>2</v>
       </c>
@@ -810,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -827,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -844,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="38">
       <c r="A6">
         <v>3</v>
       </c>
@@ -861,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -878,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="38">
       <c r="A8">
         <v>5</v>
       </c>
@@ -895,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="38">
       <c r="A9">
         <v>6</v>
       </c>
@@ -912,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="57">
       <c r="A10">
         <v>7</v>
       </c>
@@ -929,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
@@ -949,7 +954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
@@ -966,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
@@ -983,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1017,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1054,7 +1059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="38">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="38">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="38">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1156,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="38">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1193,7 +1198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="19">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="19">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1227,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="19">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1244,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="38">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="38">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="38">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1295,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="38">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1305,14 +1310,14 @@
       <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" t="s">
-        <v>54</v>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1322,31 +1327,31 @@
       <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>55</v>
+      <c r="D33" t="s">
+        <v>54</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="38">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
-        <v>56</v>
+      <c r="D34" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1356,14 +1361,14 @@
       <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>57</v>
+      <c r="D35" t="s">
+        <v>56</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="38">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1374,13 +1379,13 @@
         <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="38">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1391,13 +1396,13 @@
         <v>50</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="38">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1407,31 +1412,31 @@
       <c r="C38" t="s">
         <v>50</v>
       </c>
-      <c r="D38" t="s">
-        <v>58</v>
+      <c r="D38" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>61</v>
+      <c r="D39" t="s">
+        <v>58</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="57">
       <c r="A40">
         <v>12</v>
       </c>
@@ -1442,13 +1447,13 @@
         <v>50</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="38">
       <c r="A41">
         <v>13</v>
       </c>
@@ -1459,13 +1464,13 @@
         <v>50</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="38">
       <c r="A42">
         <v>14</v>
       </c>
@@ -1476,13 +1481,13 @@
         <v>50</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="57">
       <c r="A43">
         <v>15</v>
       </c>
@@ -1492,14 +1497,14 @@
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" t="s">
-        <v>65</v>
+      <c r="D43" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>16</v>
       </c>
@@ -1510,13 +1515,13 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>17</v>
       </c>
@@ -1526,10 +1531,27 @@
       <c r="C45" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="57">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E45" t="b">
+      <c r="E46" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
+++ b/Assets/Scripts/System/Interaction/Dialog/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szun8/Documents/Develop/dragon-and-test/Assets/Scripts/System/Interaction/Dialog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Desktop\sieun\Develop\dragon-and-test\Assets\Scripts\System\Interaction\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDA90A-2C23-2F45-9F2D-9518D5C09D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431C3C1A-407A-4CCA-BD11-E4B25B462E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="780" windowWidth="27740" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
+    <workbookView xWindow="1065" yWindow="780" windowWidth="27735" windowHeight="12840" xr2:uid="{62D67DF9-C02E-4B4B-9D5F-1B428BA22005}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueEntity" sheetId="1" r:id="rId1"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>응 고마워, 인벤토리에 넣어줄게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가격은 dd이야
 구매할거니?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +335,10 @@
   <si>
     <t>재장전은 R 키로 할 수 있어!
 재장전을 해보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응 고마워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -749,19 +749,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EA14-B14C-3842-BF84-4D0E376FD83F}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38">
+    <row r="6" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="38">
+    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38">
+    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57">
+    <row r="10" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -954,7 +954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="38">
+    <row r="21" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38">
+    <row r="22" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="38">
+    <row r="23" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="38">
+    <row r="25" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1226,13 +1226,13 @@
         <v>44</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1243,313 +1243,313 @@
         <v>44</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="38">
+    <row r="29" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38">
+    <row r="30" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="38">
+    <row r="31" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="38">
+    <row r="32" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="38">
+    <row r="34" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="38">
+    <row r="36" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="38">
+    <row r="37" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="38">
+    <row r="38" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="57">
+    <row r="40" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="38">
+    <row r="41" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="38">
+    <row r="42" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="57">
+    <row r="43" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="57">
+    <row r="46" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
